--- a/biology/Botanique/Baptisia/Baptisia.xlsx
+++ b/biology/Botanique/Baptisia/Baptisia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baptisia est un genre de plantes d'Amérique du Nord de la famille des Fabacées
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces du genre sont de petits arbustes ou plantes herbacées vivaces.
 Les feuilles peuvent être entières ou imparipennées (le plus souvent à trois folioles).
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces du genre sont originaires d'Amérique du Nord, en particulier des États-Unis.
 Elles se sont diffusées pour beaucoup maintenant dans la plupart des régions tempérées comme plantes ornementales.
@@ -578,10 +594,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce - Baptisia tinctoria - a pu servir de plante tinctoriale, d'où son nom de « faux indigo ».
-Des propriétés médicinales sont signalées pour Baptisia australis et Baptisia tinctoria[1].
+Des propriétés médicinales sont signalées pour Baptisia australis et Baptisia tinctoria.
 Actuellement, la seule utilisation des principales espèces est ornementale.
 </t>
         </is>
@@ -611,7 +629,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Baptisia appartient à la sous-famille des Faboideae et à la tribu des Thermopsideae.
 Le genre décrit en 1808 par Étienne Pierre Ventenat comprenait deux espèces :
@@ -619,10 +639,45 @@
 une du genre Sophora : Sophora tinctoria L. - qui a servi à le nommer -
 La proximité avec ces deux genres, en ajoutant encore celle avec le genre Thermopsis, a persisté et a conduit à de nombreux synonymes.
 Le nom du genre provient du verbe grec : βαπτιζειν (teindre), en référence à l'usage aujourd'hui abandonné d'extraction d'indigo de Baptisia tinctoria.
-Liste des espèces
-La liste des espèces est issue des index IPNI (International Plants Names Index) et Tropicos (Index du Jardin Botanique du Missouri), avec indication des divergences de ce dernier index avec l'index GRIN (Germplasm Ressources Information Network), à la date de juillet 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baptisia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baptisia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Position taxinomique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces est issue des index IPNI (International Plants Names Index) et Tropicos (Index du Jardin Botanique du Missouri), avec indication des divergences de ce dernier index avec l'index GRIN (Germplasm Ressources Information Network), à la date de juillet 2011.
 Les espèces retenues sont mises en gras :
-Baptisia alba (L.) Vent. (1808) - synonymes :  Baptisia albescens Small, Baptisia albiflora Raf., Crotalaria alba L., Podalyria alba (L.) L., Sophora alba (L.) L.[2]
+Baptisia alba (L.) Vent. (1808) - synonymes :  Baptisia albescens Small, Baptisia albiflora Raf., Crotalaria alba L., Podalyria alba (L.) L., Sophora alba (L.) L.
 Baptisia alba R.Br. (1811)
 Baptisia alba var. macrophylla (Larisey) Isely (1986) : voir Baptisia lactea var. obovata (Larisey) Isely - synonymes : Baptisia pendula var. macrophylla Larisey
 Baptisia albescens Small (1903) : voir Baptisia alba (L.) Vent.
@@ -644,7 +699,7 @@
 Baptisia calycosa var. villosa Canby (1887) : voir Baptisia hirsuta Small
 Baptisia cinerea (Raf.) Fernald &amp; B.G.Schub. (1948) - synonyme : Lasinia cinerea Raf.
 Baptisia confusa Sweet ex G.Don (1832) : voir Baptisia australis (L.) R.Br.
-Baptisia confusa Pollard &amp; Ball (1900) : voir Baptisia nuttalliana Small[3]
+Baptisia confusa Pollard &amp; Ball (1900) : voir Baptisia nuttalliana Small
 Baptisia cuneata Small (1898) : voir Baptisia bracteata var. laevicaulis (A.Gray exCanby) Isely
 Baptisia × deamii Larisey (1940) - espèce hybride : Baptisia tinctoria var. crebra × Baptisia brateata var glabrescens
 Baptisia elliptica Small (1903) : voir Baptisia lanceolata var. tomentosa (Larisey) Isely - synonyme : Baptisia lanceolata var. elliptica (Small) B.L. Turner
@@ -672,7 +727,7 @@
 Baptisia leucantha Torr. &amp; A.Gray (1840) - voir Baptisia lactea (Raf.) Thieret
 Baptisia leucantha var. divaricata Larisey (1940) - voir  Baptisia lactea (Raf.) Thieret
 Baptisia leucantha var. pauciflora Larisey (1940)- voir  Baptisia lactea (Raf.) Thieret
-Baptisia leucophaea Nutt. (1818) : voir Baptisia bracteata var. glabrescens (Larisey) Isely - synonyme : Baptisia bracteata var. leucophaea (Nutt.) Kartesz &amp; Gandhi, Baptisia leucophaea var. glabrescens Larisey[4]
+Baptisia leucophaea Nutt. (1818) : voir Baptisia bracteata var. glabrescens (Larisey) Isely - synonyme : Baptisia bracteata var. leucophaea (Nutt.) Kartesz &amp; Gandhi, Baptisia leucophaea var. glabrescens Larisey
 Baptisia leucophaea var. glabrescens Larisey (1940) : voir Baptisia bracteata var. glabrescens (Larisey) Isely - synonymes : Baptisia bracteata var. leucophaea (Nutt.) Kartesz &amp; Gandhi, Baptisia leucophaea Nutt.
 Baptisia leucophaea var. laevicaulis A.Gray ex Canby (1879) : voir Baptisia bracteata var. laevicaulis (A.Gray exCanby) Isely - synonyme : Baptisia laevicaulis (A.Gray ex Canby) Small
 Baptisia lupinoides Burbidge (1884)
@@ -680,7 +735,7 @@
 Baptisia megacarpa Chapm. ex Torr. &amp; A.Gray (1840) - synonymes : Baptisia riparia Larisey
 Baptisia microphylla Nutt. (1834) - synonymes : Baptisia perfoliata var. lobata Canby, Baptisia stipulacea Ravenel, Pericaulon microphylum (Nutt.) Raf.
 Baptisia microphylla var. axillaris Canby (1879)
-Baptisia minor Lehm. (1827) - synonymes : Baptisia australis var. minor (Lehm.) Fernald, Baptisia texana Buckley, Baptisia vespertina Small ex Rydb.[5]
+Baptisia minor Lehm. (1827) - synonymes : Baptisia australis var. minor (Lehm.) Fernald, Baptisia texana Buckley, Baptisia vespertina Small ex Rydb.
 Baptisia minor var. aberrans Larisey (1940) : voir Baptisia australis var. aberrans (Larisey) M.G.Mendenhall
 Baptisia mollis (Michx.) Nutt. (1818) : voir Thermopsis mollis (Michx.) M.A. Curtis &amp; A.Gray - synonymes : Baptisia mollis (Michx.) DC., Podalyria mollis Michx.
 Baptisia mollis (Michx.) DC. (1825) : voir Thermopsis mollis (Michx.) M.A. Curtis &amp; A.Gray - homonyme de Baptisia mollis (Michx.) Nutt.
